--- a/fhir/indisa/StructureDefinition-profileObservationLabKlinic.xlsx
+++ b/fhir/indisa/StructureDefinition-profileObservationLabKlinic.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$160</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6057" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5946" uniqueCount="610">
   <si>
     <t>Path</t>
   </si>
@@ -432,7 +432,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|ImagingStudy)
 </t>
   </si>
   <si>
@@ -908,7 +908,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(Patient|Location)
 </t>
   </si>
   <si>
@@ -1112,6 +1112,24 @@
   </si>
   <si>
     <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Observation.performer.id</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension</t>
+  </si>
+  <si>
+    <t>Observation.performer.reference</t>
+  </si>
+  <si>
+    <t>Observation.performer.type</t>
+  </si>
+  <si>
+    <t>Observation.performer.identifier</t>
+  </si>
+  <si>
+    <t>Observation.performer.display</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
@@ -1667,7 +1685,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse)
 </t>
   </si>
   <si>
@@ -1708,7 +1726,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(ImagingStudy|Media|QuestionnaireResponse|Observation)
 </t>
   </si>
   <si>
@@ -1902,33 +1920,6 @@
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange.id</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange.low</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange.high</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange.type</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange.appliesTo</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange.age</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange.text</t>
   </si>
 </sst>
 </file>
@@ -2077,7 +2068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO163"/>
+  <dimension ref="A1:AO160"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2086,47 +2077,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.65625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.3125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.58984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="65.69140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="61.72265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.57421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="242.25390625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="38.60546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9539,7 +9530,7 @@
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
@@ -9656,7 +9647,7 @@
         <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>45</v>
@@ -9665,23 +9656,19 @@
         <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>353</v>
+        <v>57</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>354</v>
+        <v>140</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9729,7 +9716,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9738,44 +9725,44 @@
         <v>55</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>361</v>
+        <v>143</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>362</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9787,20 +9774,18 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>364</v>
+        <v>102</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>365</v>
+        <v>145</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9824,43 +9809,43 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>368</v>
+        <v>45</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>369</v>
+        <v>45</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>363</v>
+        <v>149</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>45</v>
@@ -9869,10 +9854,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>371</v>
+        <v>143</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9883,18 +9868,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>373</v>
+        <v>45</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
@@ -9903,23 +9888,21 @@
         <v>45</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>374</v>
+        <v>151</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>375</v>
+        <v>152</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9943,13 +9926,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9967,16 +9950,16 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>372</v>
+        <v>154</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>67</v>
@@ -9985,24 +9968,24 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>381</v>
+        <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>382</v>
+        <v>98</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>383</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10022,18 +10005,20 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -10058,13 +10043,13 @@
         <v>45</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>45</v>
@@ -10082,7 +10067,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -10094,7 +10079,7 @@
         <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>45</v>
@@ -10106,7 +10091,7 @@
         <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -10117,18 +10102,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
@@ -10137,19 +10122,19 @@
         <v>45</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10187,31 +10172,31 @@
         <v>45</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>45</v>
@@ -10223,7 +10208,7 @@
         <v>45</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -10234,7 +10219,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10245,7 +10230,7 @@
         <v>43</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
@@ -10257,20 +10242,18 @@
         <v>56</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>45</v>
       </c>
@@ -10318,13 +10301,13 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>45</v>
@@ -10339,10 +10322,10 @@
         <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10353,7 +10336,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10364,7 +10347,7 @@
         <v>43</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
@@ -10373,19 +10356,23 @@
         <v>45</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>57</v>
+        <v>359</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>140</v>
+        <v>360</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
       </c>
@@ -10433,7 +10420,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>142</v>
+        <v>358</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10442,44 +10429,44 @@
         <v>55</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>143</v>
+        <v>367</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>45</v>
@@ -10491,18 +10478,20 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>102</v>
+        <v>370</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>145</v>
+        <v>371</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
       </c>
@@ -10526,43 +10515,43 @@
         <v>45</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>45</v>
+        <v>374</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>149</v>
+        <v>369</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>45</v>
@@ -10571,10 +10560,10 @@
         <v>45</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>143</v>
+        <v>377</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10585,18 +10574,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>45</v>
+        <v>379</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>45</v>
@@ -10605,29 +10594,29 @@
         <v>45</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>215</v>
+        <v>380</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>216</v>
+        <v>381</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>217</v>
+        <v>382</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>218</v>
+        <v>383</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>45</v>
@@ -10645,13 +10634,13 @@
         <v>45</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
@@ -10669,13 +10658,13 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>220</v>
+        <v>378</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>45</v>
@@ -10687,24 +10676,24 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>221</v>
+        <v>387</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>222</v>
+        <v>388</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>45</v>
+        <v>389</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10724,20 +10713,18 @@
         <v>45</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10786,7 +10773,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10798,7 +10785,7 @@
         <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>45</v>
@@ -10807,10 +10794,10 @@
         <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
@@ -10821,18 +10808,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>45</v>
@@ -10841,21 +10828,21 @@
         <v>45</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>45</v>
       </c>
@@ -10891,31 +10878,31 @@
         <v>45</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>45</v>
@@ -10924,10 +10911,10 @@
         <v>45</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
@@ -10938,7 +10925,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10946,10 +10933,10 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>45</v>
@@ -10961,17 +10948,19 @@
         <v>56</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="N76" t="s" s="2">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
@@ -11020,13 +11009,13 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>45</v>
@@ -11041,10 +11030,10 @@
         <v>45</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -11055,7 +11044,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11075,23 +11064,19 @@
         <v>45</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>247</v>
+        <v>57</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>45</v>
       </c>
@@ -11139,7 +11124,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -11151,7 +11136,7 @@
         <v>45</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>45</v>
@@ -11160,10 +11145,10 @@
         <v>45</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -11174,18 +11159,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>45</v>
@@ -11194,23 +11179,21 @@
         <v>45</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>45</v>
       </c>
@@ -11246,31 +11229,31 @@
         <v>45</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>45</v>
@@ -11279,10 +11262,10 @@
         <v>45</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -11293,7 +11276,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11301,7 +11284,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>55</v>
@@ -11313,29 +11296,29 @@
         <v>45</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>397</v>
+        <v>69</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>398</v>
+        <v>215</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>399</v>
+        <v>216</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>400</v>
+        <v>217</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>401</v>
+        <v>218</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>45</v>
@@ -11377,13 +11360,13 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>396</v>
+        <v>220</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>45</v>
@@ -11398,10 +11381,10 @@
         <v>45</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>402</v>
+        <v>221</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>403</v>
+        <v>222</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -11412,7 +11395,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11432,18 +11415,20 @@
         <v>45</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>45</v>
@@ -11492,7 +11477,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>142</v>
+        <v>227</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11504,7 +11489,7 @@
         <v>45</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>45</v>
@@ -11513,10 +11498,10 @@
         <v>45</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11527,18 +11512,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>45</v>
@@ -11547,21 +11532,21 @@
         <v>45</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
       </c>
@@ -11597,31 +11582,31 @@
         <v>45</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>45</v>
@@ -11630,10 +11615,10 @@
         <v>45</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
@@ -11644,7 +11629,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11652,10 +11637,10 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>45</v>
@@ -11667,18 +11652,18 @@
         <v>56</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>407</v>
+        <v>57</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>408</v>
+        <v>239</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
       </c>
@@ -11726,7 +11711,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>411</v>
+        <v>243</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11747,10 +11732,10 @@
         <v>45</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>412</v>
+        <v>245</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -11761,7 +11746,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11784,16 +11769,20 @@
         <v>56</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>414</v>
+        <v>247</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>415</v>
+        <v>248</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
       </c>
@@ -11841,7 +11830,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>417</v>
+        <v>252</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11862,10 +11851,10 @@
         <v>45</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>98</v>
+        <v>253</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>418</v>
+        <v>254</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -11876,7 +11865,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11884,10 +11873,10 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>45</v>
@@ -11899,16 +11888,20 @@
         <v>56</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>420</v>
+        <v>57</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>421</v>
+        <v>259</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
       </c>
@@ -11956,10 +11949,10 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>423</v>
+        <v>263</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>55</v>
@@ -11977,10 +11970,10 @@
         <v>45</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>98</v>
+        <v>264</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>424</v>
+        <v>265</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
@@ -11991,7 +11984,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12002,7 +11995,7 @@
         <v>43</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>45</v>
@@ -12014,18 +12007,20 @@
         <v>45</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>189</v>
+        <v>403</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>45</v>
       </c>
@@ -12049,13 +12044,13 @@
         <v>45</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>429</v>
+        <v>45</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>430</v>
+        <v>45</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>45</v>
@@ -12073,13 +12068,13 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>45</v>
@@ -12091,24 +12086,24 @@
         <v>45</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>431</v>
+        <v>45</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>434</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12119,7 +12114,7 @@
         <v>43</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>45</v>
@@ -12131,20 +12126,16 @@
         <v>45</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>436</v>
+        <v>140</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>45</v>
       </c>
@@ -12168,13 +12159,13 @@
         <v>45</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>440</v>
+        <v>45</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>441</v>
+        <v>45</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>45</v>
@@ -12192,7 +12183,7 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>435</v>
+        <v>142</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -12204,7 +12195,7 @@
         <v>45</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>45</v>
@@ -12213,10 +12204,10 @@
         <v>45</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>442</v>
+        <v>45</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>443</v>
+        <v>143</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
@@ -12227,18 +12218,18 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>45</v>
@@ -12250,15 +12241,17 @@
         <v>45</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>45</v>
@@ -12295,31 +12288,31 @@
         <v>45</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>45</v>
@@ -12342,18 +12335,18 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>45</v>
@@ -12362,19 +12355,19 @@
         <v>45</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>101</v>
+        <v>413</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>102</v>
+        <v>414</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>145</v>
+        <v>415</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>104</v>
+        <v>416</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12412,31 +12405,31 @@
         <v>45</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="AC88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>149</v>
+        <v>417</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>45</v>
@@ -12445,10 +12438,10 @@
         <v>45</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>143</v>
+        <v>418</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>45</v>
@@ -12459,7 +12452,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12470,7 +12463,7 @@
         <v>43</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>45</v>
@@ -12482,20 +12475,16 @@
         <v>56</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>201</v>
+        <v>420</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>202</v>
+        <v>421</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>45</v>
       </c>
@@ -12543,13 +12532,13 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>207</v>
+        <v>423</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>45</v>
@@ -12564,10 +12553,10 @@
         <v>45</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>209</v>
+        <v>424</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>45</v>
@@ -12578,7 +12567,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12586,10 +12575,10 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>45</v>
@@ -12598,16 +12587,16 @@
         <v>45</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>57</v>
+        <v>426</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>140</v>
+        <v>427</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>141</v>
+        <v>428</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12658,10 +12647,10 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>142</v>
+        <v>429</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>55</v>
@@ -12670,7 +12659,7 @@
         <v>45</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>45</v>
@@ -12679,10 +12668,10 @@
         <v>45</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>143</v>
+        <v>430</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>45</v>
@@ -12693,18 +12682,18 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>45</v>
@@ -12716,16 +12705,16 @@
         <v>45</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>102</v>
+        <v>432</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>145</v>
+        <v>433</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>104</v>
+        <v>434</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12751,66 +12740,66 @@
         <v>45</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>45</v>
+        <v>436</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>149</v>
+        <v>431</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>45</v>
+        <v>437</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>45</v>
+        <v>438</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>143</v>
+        <v>439</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>45</v>
+        <v>440</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12818,7 +12807,7 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>55</v>
@@ -12830,22 +12819,22 @@
         <v>45</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>215</v>
+        <v>442</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>216</v>
+        <v>443</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>217</v>
+        <v>444</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>218</v>
+        <v>445</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>45</v>
@@ -12870,13 +12859,13 @@
         <v>45</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>45</v>
+        <v>446</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>45</v>
+        <v>447</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>45</v>
@@ -12894,7 +12883,7 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>220</v>
+        <v>441</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
@@ -12915,10 +12904,10 @@
         <v>45</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>221</v>
+        <v>448</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>
@@ -12949,20 +12938,18 @@
         <v>45</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>45</v>
@@ -13011,7 +12998,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -13023,7 +13010,7 @@
         <v>45</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>45</v>
@@ -13032,10 +13019,10 @@
         <v>45</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>45</v>
@@ -13050,14 +13037,14 @@
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>45</v>
@@ -13066,21 +13053,21 @@
         <v>45</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>45</v>
       </c>
@@ -13116,31 +13103,31 @@
         <v>45</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>45</v>
@@ -13149,10 +13136,10 @@
         <v>45</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>45</v>
@@ -13171,10 +13158,10 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>45</v>
@@ -13186,17 +13173,19 @@
         <v>56</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="N95" t="s" s="2">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>45</v>
@@ -13245,13 +13234,13 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>45</v>
@@ -13266,10 +13255,10 @@
         <v>45</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>45</v>
@@ -13300,23 +13289,19 @@
         <v>45</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>247</v>
+        <v>57</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>45</v>
       </c>
@@ -13364,7 +13349,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -13376,7 +13361,7 @@
         <v>45</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>45</v>
@@ -13385,10 +13370,10 @@
         <v>45</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>45</v>
@@ -13403,14 +13388,14 @@
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>45</v>
@@ -13419,23 +13404,21 @@
         <v>45</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>45</v>
       </c>
@@ -13471,31 +13454,31 @@
         <v>45</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="AC97" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>45</v>
@@ -13504,10 +13487,10 @@
         <v>45</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>45</v>
@@ -13526,10 +13509,10 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>45</v>
@@ -13538,21 +13521,23 @@
         <v>45</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>456</v>
+        <v>69</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>457</v>
+        <v>215</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>458</v>
+        <v>216</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>45</v>
       </c>
@@ -13600,7 +13585,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>455</v>
+        <v>220</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -13618,24 +13603,24 @@
         <v>45</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>460</v>
+        <v>45</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>461</v>
+        <v>221</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>462</v>
+        <v>222</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>463</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13655,19 +13640,19 @@
         <v>45</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>465</v>
+        <v>57</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>466</v>
+        <v>224</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>467</v>
+        <v>225</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>468</v>
+        <v>226</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13717,7 +13702,7 @@
         <v>45</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>464</v>
+        <v>227</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>43</v>
@@ -13735,24 +13720,24 @@
         <v>45</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>469</v>
+        <v>45</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>470</v>
+        <v>228</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>471</v>
+        <v>229</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>472</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13760,10 +13745,10 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>45</v>
@@ -13772,22 +13757,20 @@
         <v>45</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>474</v>
+        <v>75</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>475</v>
+        <v>231</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" t="s" s="2">
-        <v>478</v>
+        <v>233</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>45</v>
@@ -13836,19 +13819,19 @@
         <v>45</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>473</v>
+        <v>235</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>479</v>
+        <v>67</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>45</v>
@@ -13857,10 +13840,10 @@
         <v>45</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>480</v>
+        <v>236</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>481</v>
+        <v>237</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>45</v>
@@ -13871,7 +13854,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13879,10 +13862,10 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>45</v>
@@ -13891,19 +13874,21 @@
         <v>45</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+      <c r="N101" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>45</v>
       </c>
@@ -13951,7 +13936,7 @@
         <v>45</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>43</v>
@@ -13963,7 +13948,7 @@
         <v>45</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>45</v>
@@ -13972,10 +13957,10 @@
         <v>45</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>45</v>
@@ -13986,18 +13971,18 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>45</v>
@@ -14006,21 +13991,23 @@
         <v>45</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>45</v>
       </c>
@@ -14068,19 +14055,19 @@
         <v>45</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>45</v>
@@ -14089,10 +14076,10 @@
         <v>45</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>143</v>
+        <v>254</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>45</v>
@@ -14103,42 +14090,42 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>485</v>
+        <v>45</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>486</v>
+        <v>259</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>487</v>
+        <v>260</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>104</v>
+        <v>261</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>45</v>
@@ -14187,19 +14174,19 @@
         <v>45</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>488</v>
+        <v>263</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>45</v>
@@ -14208,10 +14195,10 @@
         <v>45</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>98</v>
+        <v>265</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>45</v>
@@ -14222,7 +14209,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14245,15 +14232,17 @@
         <v>45</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M104" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>45</v>
@@ -14302,7 +14291,7 @@
         <v>45</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>43</v>
@@ -14311,7 +14300,7 @@
         <v>55</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>493</v>
+        <v>45</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>67</v>
@@ -14320,24 +14309,24 @@
         <v>45</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>45</v>
+        <v>466</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>45</v>
+        <v>469</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14360,15 +14349,17 @@
         <v>45</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M105" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>45</v>
@@ -14417,7 +14408,7 @@
         <v>45</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
@@ -14426,7 +14417,7 @@
         <v>55</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>493</v>
+        <v>45</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>67</v>
@@ -14435,24 +14426,24 @@
         <v>45</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>45</v>
+        <v>475</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>45</v>
+        <v>478</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14463,7 +14454,7 @@
         <v>43</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>45</v>
@@ -14475,19 +14466,19 @@
         <v>45</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>189</v>
+        <v>480</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>45</v>
@@ -14512,13 +14503,13 @@
         <v>45</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>505</v>
+        <v>45</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>506</v>
+        <v>45</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>45</v>
@@ -14536,31 +14527,31 @@
         <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>67</v>
+        <v>485</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>507</v>
+        <v>45</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>382</v>
+        <v>487</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>45</v>
@@ -14571,7 +14562,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14594,20 +14585,16 @@
         <v>45</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>510</v>
+        <v>140</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>45</v>
       </c>
@@ -14631,13 +14618,13 @@
         <v>45</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>514</v>
+        <v>45</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>515</v>
+        <v>45</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>45</v>
@@ -14655,31 +14642,31 @@
         <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>509</v>
+        <v>142</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>507</v>
+        <v>45</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>508</v>
+        <v>45</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>382</v>
+        <v>143</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>45</v>
@@ -14690,18 +14677,18 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>45</v>
@@ -14713,18 +14700,18 @@
         <v>45</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>517</v>
+        <v>101</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>518</v>
+        <v>102</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M108" s="2"/>
-      <c r="N108" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>45</v>
       </c>
@@ -14772,19 +14759,19 @@
         <v>45</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>516</v>
+        <v>149</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>45</v>
@@ -14796,7 +14783,7 @@
         <v>45</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>521</v>
+        <v>143</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>45</v>
@@ -14807,39 +14794,43 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>45</v>
+        <v>491</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O109" t="s" s="2">
         <v>45</v>
       </c>
@@ -14887,19 +14878,19 @@
         <v>45</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>45</v>
@@ -14908,10 +14899,10 @@
         <v>45</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>494</v>
+        <v>45</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>525</v>
+        <v>98</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>45</v>
@@ -14922,7 +14913,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>526</v>
+        <v>495</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14933,7 +14924,7 @@
         <v>43</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>45</v>
@@ -14942,20 +14933,18 @@
         <v>45</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>527</v>
+        <v>496</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>45</v>
@@ -15004,16 +14993,16 @@
         <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>526</v>
+        <v>495</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>45</v>
+        <v>499</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>67</v>
@@ -15025,10 +15014,10 @@
         <v>45</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>45</v>
@@ -15039,7 +15028,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>533</v>
+        <v>502</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15062,13 +15051,13 @@
         <v>45</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>57</v>
+        <v>496</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>140</v>
+        <v>503</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>141</v>
+        <v>504</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15119,7 +15108,7 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>142</v>
+        <v>502</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
@@ -15128,10 +15117,10 @@
         <v>55</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>45</v>
+        <v>499</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>45</v>
@@ -15140,10 +15129,10 @@
         <v>45</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>45</v>
+        <v>500</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>143</v>
+        <v>505</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>45</v>
@@ -15154,18 +15143,18 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>45</v>
@@ -15177,18 +15166,20 @@
         <v>45</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>102</v>
+        <v>507</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>145</v>
+        <v>508</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>45</v>
       </c>
@@ -15212,55 +15203,55 @@
         <v>45</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>45</v>
+        <v>511</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>45</v>
+        <v>512</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA112" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="AC112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>149</v>
+        <v>506</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>45</v>
+        <v>513</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>45</v>
+        <v>514</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>143</v>
+        <v>388</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>45</v>
@@ -15271,7 +15262,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15279,10 +15270,10 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>45</v>
@@ -15291,21 +15282,23 @@
         <v>45</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>151</v>
+        <v>516</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>152</v>
+        <v>517</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N113" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="O113" t="s" s="2">
         <v>45</v>
       </c>
@@ -15329,13 +15322,13 @@
         <v>45</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>45</v>
+        <v>520</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>45</v>
+        <v>521</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>45</v>
@@ -15353,16 +15346,16 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>154</v>
+        <v>515</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>67</v>
@@ -15371,13 +15364,13 @@
         <v>45</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>45</v>
+        <v>513</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>45</v>
+        <v>514</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>98</v>
+        <v>388</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>45</v>
@@ -15388,7 +15381,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15408,21 +15401,21 @@
         <v>45</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>69</v>
+        <v>523</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>157</v>
+        <v>524</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N114" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="O114" t="s" s="2">
         <v>45</v>
       </c>
@@ -15446,13 +15439,13 @@
         <v>45</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>45</v>
@@ -15470,7 +15463,7 @@
         <v>45</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>163</v>
+        <v>522</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
@@ -15494,7 +15487,7 @@
         <v>45</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>98</v>
+        <v>527</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>45</v>
@@ -15505,7 +15498,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15516,7 +15509,7 @@
         <v>43</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>45</v>
@@ -15525,20 +15518,18 @@
         <v>45</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>165</v>
+        <v>529</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="M115" s="2"/>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>45</v>
@@ -15587,7 +15578,7 @@
         <v>45</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>168</v>
+        <v>528</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>43</v>
@@ -15608,10 +15599,10 @@
         <v>45</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>45</v>
+        <v>500</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>169</v>
+        <v>531</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>45</v>
@@ -15622,7 +15613,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15633,7 +15624,7 @@
         <v>43</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>45</v>
@@ -15645,16 +15636,16 @@
         <v>56</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>57</v>
+        <v>533</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>171</v>
+        <v>534</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>172</v>
+        <v>535</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>173</v>
+        <v>536</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -15704,13 +15695,13 @@
         <v>45</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>174</v>
+        <v>532</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>45</v>
@@ -15725,10 +15716,10 @@
         <v>45</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>45</v>
+        <v>537</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>98</v>
+        <v>538</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>45</v>
@@ -15750,7 +15741,7 @@
         <v>43</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>45</v>
@@ -15759,20 +15750,18 @@
         <v>45</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>540</v>
+        <v>57</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>541</v>
+        <v>140</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>45</v>
@@ -15821,19 +15810,19 @@
         <v>45</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>539</v>
+        <v>142</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>45</v>
@@ -15842,10 +15831,10 @@
         <v>45</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>531</v>
+        <v>45</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>544</v>
+        <v>143</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>45</v>
@@ -15856,18 +15845,18 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>45</v>
@@ -15879,15 +15868,17 @@
         <v>45</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M118" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>45</v>
@@ -15924,31 +15915,31 @@
         <v>45</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="AC118" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD118" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>45</v>
@@ -15971,18 +15962,18 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>45</v>
@@ -15991,19 +15982,19 @@
         <v>45</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -16041,31 +16032,31 @@
         <v>45</v>
       </c>
       <c r="AA119" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="AC119" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD119" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>45</v>
@@ -16077,7 +16068,7 @@
         <v>45</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>45</v>
@@ -16088,7 +16079,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16096,10 +16087,10 @@
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>45</v>
@@ -16111,16 +16102,16 @@
         <v>56</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -16146,13 +16137,13 @@
         <v>45</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>45</v>
@@ -16170,7 +16161,7 @@
         <v>45</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
@@ -16179,7 +16170,7 @@
         <v>55</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>67</v>
@@ -16205,7 +16196,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16228,16 +16219,16 @@
         <v>56</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -16263,13 +16254,13 @@
         <v>45</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>45</v>
@@ -16287,7 +16278,7 @@
         <v>45</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
@@ -16311,7 +16302,7 @@
         <v>45</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>45</v>
@@ -16322,7 +16313,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16345,16 +16336,16 @@
         <v>56</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -16404,7 +16395,7 @@
         <v>45</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>43</v>
@@ -16428,7 +16419,7 @@
         <v>45</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>45</v>
@@ -16439,7 +16430,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16450,7 +16441,7 @@
         <v>43</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>45</v>
@@ -16462,16 +16453,16 @@
         <v>56</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>57</v>
+        <v>546</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>171</v>
+        <v>547</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>172</v>
+        <v>548</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>173</v>
+        <v>549</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -16521,13 +16512,13 @@
         <v>45</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>174</v>
+        <v>545</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>45</v>
@@ -16542,10 +16533,10 @@
         <v>45</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>45</v>
+        <v>537</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>98</v>
+        <v>550</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>45</v>
@@ -16567,7 +16558,7 @@
         <v>43</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>45</v>
@@ -16576,23 +16567,19 @@
         <v>45</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>474</v>
+        <v>57</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>552</v>
+        <v>140</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>45</v>
       </c>
@@ -16640,19 +16627,19 @@
         <v>45</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>551</v>
+        <v>142</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>45</v>
@@ -16661,10 +16648,10 @@
         <v>45</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>556</v>
+        <v>45</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>557</v>
+        <v>143</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>45</v>
@@ -16675,18 +16662,18 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>45</v>
@@ -16698,15 +16685,17 @@
         <v>45</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M125" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>45</v>
@@ -16743,31 +16732,31 @@
         <v>45</v>
       </c>
       <c r="AA125" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="AC125" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD125" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>45</v>
@@ -16790,18 +16779,18 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>45</v>
@@ -16810,19 +16799,19 @@
         <v>45</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -16872,19 +16861,19 @@
         <v>45</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>45</v>
@@ -16896,7 +16885,7 @@
         <v>45</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>45</v>
@@ -16907,43 +16896,41 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>485</v>
+        <v>45</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I127" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>486</v>
+        <v>157</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>487</v>
+        <v>158</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>45</v>
       </c>
@@ -16967,13 +16954,13 @@
         <v>45</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>45</v>
@@ -16991,19 +16978,19 @@
         <v>45</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>488</v>
+        <v>163</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>45</v>
@@ -17026,7 +17013,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17034,10 +17021,10 @@
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>45</v>
@@ -17049,20 +17036,18 @@
         <v>56</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>562</v>
+        <v>165</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>563</v>
+        <v>166</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>45</v>
       </c>
@@ -17086,13 +17071,13 @@
         <v>45</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>274</v>
+        <v>45</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>45</v>
@@ -17110,10 +17095,10 @@
         <v>45</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>561</v>
+        <v>168</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>55</v>
@@ -17128,16 +17113,16 @@
         <v>45</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>565</v>
+        <v>45</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>278</v>
+        <v>169</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>45</v>
@@ -17145,7 +17130,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17165,18 +17150,20 @@
         <v>45</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M129" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>45</v>
@@ -17225,7 +17212,7 @@
         <v>45</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>43</v>
@@ -17237,7 +17224,7 @@
         <v>45</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>45</v>
@@ -17249,7 +17236,7 @@
         <v>45</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>45</v>
@@ -17260,11 +17247,11 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -17280,21 +17267,23 @@
         <v>45</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>101</v>
+        <v>480</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>102</v>
+        <v>558</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>145</v>
+        <v>559</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>45</v>
       </c>
@@ -17330,19 +17319,19 @@
         <v>45</v>
       </c>
       <c r="AA130" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AB130" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="AC130" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD130" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>149</v>
+        <v>557</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>43</v>
@@ -17354,7 +17343,7 @@
         <v>45</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>45</v>
@@ -17363,10 +17352,10 @@
         <v>45</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>45</v>
+        <v>562</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>143</v>
+        <v>563</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>45</v>
@@ -17377,7 +17366,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17388,7 +17377,7 @@
         <v>43</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>45</v>
@@ -17397,23 +17386,19 @@
         <v>45</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>45</v>
       </c>
@@ -17461,19 +17446,19 @@
         <v>45</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>45</v>
@@ -17482,10 +17467,10 @@
         <v>45</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>45</v>
@@ -17496,18 +17481,18 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>45</v>
@@ -17519,15 +17504,17 @@
         <v>45</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M132" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>45</v>
@@ -17576,19 +17563,19 @@
         <v>45</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>45</v>
@@ -17611,11 +17598,11 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>100</v>
+        <v>491</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -17628,24 +17615,26 @@
         <v>45</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J133" t="s" s="2">
         <v>101</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>102</v>
+        <v>492</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>145</v>
+        <v>493</v>
       </c>
       <c r="M133" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N133" s="2"/>
+      <c r="N133" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O133" t="s" s="2">
         <v>45</v>
       </c>
@@ -17681,19 +17670,19 @@
         <v>45</v>
       </c>
       <c r="AA133" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AB133" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="AC133" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD133" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>149</v>
+        <v>494</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>43</v>
@@ -17717,7 +17706,7 @@
         <v>45</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>45</v>
@@ -17728,7 +17717,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17751,26 +17740,26 @@
         <v>56</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>215</v>
+        <v>568</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>217</v>
+        <v>570</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" t="s" s="2">
-        <v>573</v>
+        <v>45</v>
       </c>
       <c r="R134" t="s" s="2">
         <v>45</v>
@@ -17788,13 +17777,13 @@
         <v>45</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>45</v>
@@ -17812,10 +17801,10 @@
         <v>45</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>220</v>
+        <v>567</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>55</v>
@@ -17830,16 +17819,16 @@
         <v>45</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>45</v>
+        <v>571</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>45</v>
@@ -17847,7 +17836,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17867,20 +17856,18 @@
         <v>45</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J135" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M135" s="2"/>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>45</v>
@@ -17929,7 +17916,7 @@
         <v>45</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>43</v>
@@ -17941,7 +17928,7 @@
         <v>45</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>45</v>
@@ -17950,10 +17937,10 @@
         <v>45</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>45</v>
@@ -17964,18 +17951,18 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>45</v>
@@ -17984,21 +17971,21 @@
         <v>45</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M136" s="2"/>
-      <c r="N136" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>45</v>
       </c>
@@ -18034,31 +18021,31 @@
         <v>45</v>
       </c>
       <c r="AA136" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="AB136" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="AC136" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>45</v>
@@ -18067,10 +18054,10 @@
         <v>45</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>45</v>
@@ -18081,7 +18068,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18089,10 +18076,10 @@
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>45</v>
@@ -18104,17 +18091,19 @@
         <v>56</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M137" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="N137" t="s" s="2">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>45</v>
@@ -18163,13 +18152,13 @@
         <v>45</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>45</v>
@@ -18184,10 +18173,10 @@
         <v>45</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>45</v>
@@ -18198,7 +18187,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18218,23 +18207,19 @@
         <v>45</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>247</v>
+        <v>57</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>45</v>
       </c>
@@ -18282,7 +18267,7 @@
         <v>45</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>43</v>
@@ -18294,7 +18279,7 @@
         <v>45</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>45</v>
@@ -18303,10 +18288,10 @@
         <v>45</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>45</v>
@@ -18317,18 +18302,18 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>45</v>
@@ -18337,23 +18322,21 @@
         <v>45</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>45</v>
       </c>
@@ -18389,31 +18372,31 @@
         <v>45</v>
       </c>
       <c r="AA139" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="AB139" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="AC139" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD139" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>45</v>
@@ -18422,10 +18405,10 @@
         <v>45</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>45</v>
@@ -18436,7 +18419,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18444,7 +18427,7 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F140" t="s" s="2">
         <v>55</v>
@@ -18459,26 +18442,26 @@
         <v>56</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>353</v>
+        <v>69</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>580</v>
+        <v>215</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>582</v>
+        <v>217</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>357</v>
+        <v>218</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
-        <v>45</v>
+        <v>579</v>
       </c>
       <c r="R140" t="s" s="2">
         <v>45</v>
@@ -18520,7 +18503,7 @@
         <v>45</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>579</v>
+        <v>220</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>43</v>
@@ -18538,24 +18521,24 @@
         <v>45</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>583</v>
+        <v>45</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>360</v>
+        <v>221</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>361</v>
+        <v>222</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>362</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18575,23 +18558,21 @@
         <v>45</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>585</v>
+        <v>224</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>586</v>
+        <v>225</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>45</v>
       </c>
@@ -18615,13 +18596,13 @@
         <v>45</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>368</v>
+        <v>45</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>369</v>
+        <v>45</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>45</v>
@@ -18639,7 +18620,7 @@
         <v>45</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>584</v>
+        <v>227</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>43</v>
@@ -18648,7 +18629,7 @@
         <v>55</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>67</v>
@@ -18660,10 +18641,10 @@
         <v>45</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>371</v>
+        <v>229</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>45</v>
@@ -18674,18 +18655,18 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>373</v>
+        <v>45</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>45</v>
@@ -18694,22 +18675,20 @@
         <v>45</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>374</v>
+        <v>231</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>377</v>
+        <v>233</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>45</v>
@@ -18734,13 +18713,13 @@
         <v>45</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>45</v>
@@ -18758,13 +18737,13 @@
         <v>45</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>588</v>
+        <v>235</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>45</v>
@@ -18776,24 +18755,24 @@
         <v>45</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>381</v>
+        <v>236</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>382</v>
+        <v>237</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>383</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18801,10 +18780,10 @@
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>45</v>
@@ -18813,19 +18792,21 @@
         <v>45</v>
       </c>
       <c r="I143" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J143" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
+      <c r="N143" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O143" t="s" s="2">
         <v>45</v>
       </c>
@@ -18873,7 +18854,7 @@
         <v>45</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>43</v>
@@ -18885,7 +18866,7 @@
         <v>45</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>45</v>
@@ -18894,10 +18875,10 @@
         <v>45</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>45</v>
@@ -18908,18 +18889,18 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>45</v>
@@ -18928,21 +18909,23 @@
         <v>45</v>
       </c>
       <c r="I144" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N144" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O144" t="s" s="2">
         <v>45</v>
       </c>
@@ -18978,31 +18961,31 @@
         <v>45</v>
       </c>
       <c r="AA144" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AB144" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="AC144" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD144" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>45</v>
@@ -19011,10 +18994,10 @@
         <v>45</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>143</v>
+        <v>254</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>45</v>
@@ -19025,7 +19008,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19036,7 +19019,7 @@
         <v>43</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>45</v>
@@ -19048,19 +19031,19 @@
         <v>56</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>45</v>
@@ -19109,13 +19092,13 @@
         <v>45</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>45</v>
@@ -19130,10 +19113,10 @@
         <v>45</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>45</v>
@@ -19144,7 +19127,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19155,7 +19138,7 @@
         <v>43</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>45</v>
@@ -19164,19 +19147,23 @@
         <v>45</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>57</v>
+        <v>359</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>140</v>
+        <v>586</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O146" t="s" s="2">
         <v>45</v>
       </c>
@@ -19224,7 +19211,7 @@
         <v>45</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>142</v>
+        <v>585</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>43</v>
@@ -19236,41 +19223,41 @@
         <v>45</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>45</v>
+        <v>589</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>143</v>
+        <v>367</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>45</v>
@@ -19282,18 +19269,20 @@
         <v>45</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>102</v>
+        <v>591</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>145</v>
+        <v>592</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N147" s="2"/>
+        <v>593</v>
+      </c>
+      <c r="N147" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O147" t="s" s="2">
         <v>45</v>
       </c>
@@ -19317,43 +19306,43 @@
         <v>45</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>45</v>
+        <v>374</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA147" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AB147" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="AC147" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD147" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>149</v>
+        <v>590</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>45</v>
@@ -19362,10 +19351,10 @@
         <v>45</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>143</v>
+        <v>377</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>45</v>
@@ -19376,18 +19365,18 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>45</v>
+        <v>379</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>45</v>
@@ -19396,29 +19385,29 @@
         <v>45</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>215</v>
+        <v>380</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>216</v>
+        <v>595</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>217</v>
+        <v>382</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>218</v>
+        <v>383</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="R148" t="s" s="2">
         <v>45</v>
@@ -19436,13 +19425,13 @@
         <v>45</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>45</v>
@@ -19460,13 +19449,13 @@
         <v>45</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>220</v>
+        <v>594</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>45</v>
@@ -19478,19 +19467,19 @@
         <v>45</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>221</v>
+        <v>387</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>222</v>
+        <v>388</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO148" t="s" s="2">
-        <v>45</v>
+        <v>389</v>
       </c>
     </row>
     <row r="149" hidden="true">
@@ -19515,20 +19504,18 @@
         <v>45</v>
       </c>
       <c r="I149" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J149" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M149" s="2"/>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>45</v>
@@ -19577,7 +19564,7 @@
         <v>45</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>43</v>
@@ -19589,7 +19576,7 @@
         <v>45</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>45</v>
@@ -19598,10 +19585,10 @@
         <v>45</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>45</v>
@@ -19616,14 +19603,14 @@
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>45</v>
@@ -19632,21 +19619,21 @@
         <v>45</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M150" s="2"/>
-      <c r="N150" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
         <v>45</v>
       </c>
@@ -19682,31 +19669,31 @@
         <v>45</v>
       </c>
       <c r="AA150" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="AB150" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="AC150" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD150" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>45</v>
@@ -19715,10 +19702,10 @@
         <v>45</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>45</v>
@@ -19737,10 +19724,10 @@
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>45</v>
@@ -19752,17 +19739,19 @@
         <v>56</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M151" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="N151" t="s" s="2">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>45</v>
@@ -19811,13 +19800,13 @@
         <v>45</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>45</v>
@@ -19832,10 +19821,10 @@
         <v>45</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>45</v>
@@ -19866,23 +19855,19 @@
         <v>45</v>
       </c>
       <c r="I152" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>247</v>
+        <v>57</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>45</v>
       </c>
@@ -19930,7 +19915,7 @@
         <v>45</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>43</v>
@@ -19942,7 +19927,7 @@
         <v>45</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>45</v>
@@ -19951,10 +19936,10 @@
         <v>45</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>45</v>
@@ -19969,14 +19954,14 @@
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>45</v>
@@ -19985,23 +19970,21 @@
         <v>45</v>
       </c>
       <c r="I153" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
         <v>45</v>
       </c>
@@ -20037,31 +20020,31 @@
         <v>45</v>
       </c>
       <c r="AA153" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="AB153" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="AC153" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD153" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>45</v>
@@ -20070,10 +20053,10 @@
         <v>45</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>45</v>
@@ -20092,10 +20075,10 @@
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>45</v>
@@ -20104,29 +20087,29 @@
         <v>45</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>474</v>
+        <v>69</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>602</v>
+        <v>215</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>603</v>
+        <v>216</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>477</v>
+        <v>217</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>478</v>
+        <v>218</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P154" s="2"/>
       <c r="Q154" t="s" s="2">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="R154" t="s" s="2">
         <v>45</v>
@@ -20168,13 +20151,13 @@
         <v>45</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>601</v>
+        <v>220</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>45</v>
@@ -20189,10 +20172,10 @@
         <v>45</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>480</v>
+        <v>221</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>481</v>
+        <v>222</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>45</v>
@@ -20203,7 +20186,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20223,18 +20206,20 @@
         <v>45</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J155" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M155" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>45</v>
@@ -20283,7 +20268,7 @@
         <v>45</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>142</v>
+        <v>227</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>43</v>
@@ -20295,7 +20280,7 @@
         <v>45</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>45</v>
@@ -20304,10 +20289,10 @@
         <v>45</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>45</v>
@@ -20318,18 +20303,18 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>45</v>
@@ -20338,21 +20323,21 @@
         <v>45</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N156" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M156" s="2"/>
+      <c r="N156" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O156" t="s" s="2">
         <v>45</v>
       </c>
@@ -20400,19 +20385,19 @@
         <v>45</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>45</v>
@@ -20421,10 +20406,10 @@
         <v>45</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>45</v>
@@ -20435,42 +20420,40 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
-        <v>485</v>
+        <v>45</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>486</v>
+        <v>239</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M157" s="2"/>
       <c r="N157" t="s" s="2">
-        <v>110</v>
+        <v>241</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>45</v>
@@ -20519,19 +20502,19 @@
         <v>45</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>488</v>
+        <v>243</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>45</v>
@@ -20540,10 +20523,10 @@
         <v>45</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>98</v>
+        <v>245</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>45</v>
@@ -20554,7 +20537,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20574,19 +20557,23 @@
         <v>45</v>
       </c>
       <c r="I158" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>490</v>
+        <v>247</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>491</v>
+        <v>248</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N158" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O158" t="s" s="2">
         <v>45</v>
       </c>
@@ -20634,7 +20621,7 @@
         <v>45</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>489</v>
+        <v>252</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>43</v>
@@ -20643,7 +20630,7 @@
         <v>55</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>493</v>
+        <v>45</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>67</v>
@@ -20655,10 +20642,10 @@
         <v>45</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>494</v>
+        <v>253</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>495</v>
+        <v>254</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>45</v>
@@ -20669,7 +20656,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20689,19 +20676,23 @@
         <v>45</v>
       </c>
       <c r="I159" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>490</v>
+        <v>57</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>497</v>
+        <v>259</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N159" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O159" t="s" s="2">
         <v>45</v>
       </c>
@@ -20749,7 +20740,7 @@
         <v>45</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>496</v>
+        <v>263</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>43</v>
@@ -20758,7 +20749,7 @@
         <v>55</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>493</v>
+        <v>45</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>67</v>
@@ -20770,10 +20761,10 @@
         <v>45</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>494</v>
+        <v>264</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>499</v>
+        <v>265</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>45</v>
@@ -20784,7 +20775,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20795,7 +20786,7 @@
         <v>43</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>45</v>
@@ -20807,19 +20798,19 @@
         <v>45</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>501</v>
+        <v>608</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>502</v>
+        <v>609</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>45</v>
@@ -20844,13 +20835,13 @@
         <v>45</v>
       </c>
       <c r="W160" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>505</v>
+        <v>45</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>506</v>
+        <v>45</v>
       </c>
       <c r="Z160" t="s" s="2">
         <v>45</v>
@@ -20868,13 +20859,13 @@
         <v>45</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>500</v>
+        <v>607</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>45</v>
@@ -20886,374 +20877,23 @@
         <v>45</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>507</v>
+        <v>45</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>382</v>
+        <v>487</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="161" hidden="true">
-      <c r="A161" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="B161" s="2"/>
-      <c r="C161" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F161" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G161" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J161" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O161" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P161" s="2"/>
-      <c r="Q161" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R161" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S161" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T161" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U161" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V161" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W161" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="X161" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="Y161" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA161" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AF161" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG161" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH161" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI161" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ161" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK161" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AL161" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AM161" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AN161" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO161" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="162" hidden="true">
-      <c r="A162" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="B162" s="2"/>
-      <c r="C162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F162" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J162" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="K162" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M162" s="2"/>
-      <c r="N162" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P162" s="2"/>
-      <c r="Q162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE162" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AF162" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG162" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI162" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM162" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AN162" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO162" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="163" hidden="true">
-      <c r="A163" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="B163" s="2"/>
-      <c r="C163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D163" s="2"/>
-      <c r="E163" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F163" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J163" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="K163" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
-      <c r="O163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P163" s="2"/>
-      <c r="Q163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE163" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AF163" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG163" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI163" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL163" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AM163" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN163" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO163" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO163">
+  <autoFilter ref="A1:AO160">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -21263,7 +20903,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI162">
+  <conditionalFormatting sqref="A2:AI159">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
